--- a/DB/LISTS.xlsx
+++ b/DB/LISTS.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="49">
   <si>
     <t>Gr No</t>
   </si>
@@ -104,9 +104,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>nan</t>
-  </si>
-  <si>
     <t>nan, Book 1</t>
   </si>
   <si>
@@ -161,7 +158,7 @@
     <t>Not Issued</t>
   </si>
   <si>
-    <t>nan, Noah Miller ('2024-01-02' -- -- '2024-01-02'), Isabella Wilson ('2024-01-02' -- -- '2024-01-02'), Isabella Wilson ('2024-01-02' -- -- '2024-01-02'), Jackson Taylor ('2024-01-02' -- -- '2024-01-02'), Noah Miller ('2024-01-02' -- -- '2024-01-02'), Ava Brown ('2024-01-02' -- -- '2024-01-02')</t>
+    <t>nan, Noah Miller ('2024-01-02' -- -- '2024-01-02'), Isabella Wilson ('2024-01-02' -- -- '2024-01-02'), Isabella Wilson ('2024-01-02' -- -- '2024-01-02'), Jackson Taylor ('2024-01-02' -- -- '2024-01-02'), Noah Miller ('2024-01-02' -- -- '2024-01-02'), Ava Brown ('2024-01-02' -- -- '2024-01-02'), Ethan Smith ('2025-06-02' -- -- '2025-06-02')</t>
   </si>
   <si>
     <t>nan, Noah Miller (2024-01-02 -- 2024-01-02)</t>
@@ -628,9 +625,6 @@
       <c r="D7" t="s">
         <v>28</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
@@ -646,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -856,19 +850,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -876,13 +870,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -890,13 +884,13 @@
         <v>10001</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -904,10 +898,10 @@
         <v>10002</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -915,10 +909,10 @@
         <v>10003</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -926,10 +920,10 @@
         <v>10004</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -937,10 +931,10 @@
         <v>10005</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -948,10 +942,10 @@
         <v>10006</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -959,10 +953,10 @@
         <v>10007</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -970,10 +964,10 @@
         <v>10008</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -981,10 +975,10 @@
         <v>10009</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -992,10 +986,10 @@
         <v>10010</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
